--- a/src/resources/dataTest.xlsx
+++ b/src/resources/dataTest.xlsx
@@ -5,14 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Conando\Fastdo_POM\src\conando\tester\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Conando\Fastdo_2.0\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="AddUserinCorp" sheetId="2" r:id="rId2"/>
+    <sheet name="Create inCorp" sheetId="3" r:id="rId3"/>
+    <sheet name="editInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="admin - createUser" sheetId="5" r:id="rId5"/>
+    <sheet name="admin - createBanner" sheetId="6" r:id="rId6"/>
+    <sheet name="admin - CreateAdmin" sheetId="7" r:id="rId7"/>
+    <sheet name="admin - discount" sheetId="8" r:id="rId8"/>
+    <sheet name="admin - editAdmin" sheetId="9" r:id="rId9"/>
+    <sheet name="admin - editUser" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -45,16 +54,121 @@
   </si>
   <si>
     <t>dantruong2410</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>23 Truong Thi 1</t>
+  </si>
+  <si>
+    <t>conando@gmail.vn</t>
+  </si>
+  <si>
+    <t>Do Corp</t>
+  </si>
+  <si>
+    <t>25 Truong Thi 1</t>
+  </si>
+  <si>
+    <t>26 Truong Thi 1</t>
+  </si>
+  <si>
+    <t>27 Truong Thi 1</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>tester@gmail.com</t>
+  </si>
+  <si>
+    <t>passold</t>
+  </si>
+  <si>
+    <t>passnew</t>
+  </si>
+  <si>
+    <t>NGUYEN</t>
+  </si>
+  <si>
+    <t>DAN TRUONG</t>
+  </si>
+  <si>
+    <t>truong</t>
+  </si>
+  <si>
+    <t>truong@gmail.com</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Giảm giá test</t>
+  </si>
+  <si>
+    <t>Dan Truong</t>
+  </si>
+  <si>
+    <t>nguyendantruongg@gmail.com</t>
+  </si>
+  <si>
+    <t>ndtrutong</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Ưu đãi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -78,14 +192,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -435,4 +552,1174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>84674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>84905110062</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>84905110062</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>84905110062</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B5:B6" r:id="rId3" display="tester@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>905110062</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>905110063</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>905110065</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>905110066</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>84328341092</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>84328341092</v>
+      </c>
+      <c r="E3">
+        <v>123456</v>
+      </c>
+      <c r="F3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
+      </c>
+      <c r="F4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>321841092</v>
+      </c>
+      <c r="E5">
+        <v>123456</v>
+      </c>
+      <c r="F5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>84328341092</v>
+      </c>
+      <c r="F6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>84328341092</v>
+      </c>
+      <c r="E7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>84328341092</v>
+      </c>
+      <c r="E8">
+        <v>123456</v>
+      </c>
+      <c r="F8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>84328341092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>84328341093</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>84328341092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>84328341093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>84328341097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>84328341098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>84328341099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>84328341100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="truong@gmail.com"/>
+    <hyperlink ref="B4:B10" r:id="rId2" display="truong@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>123457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>123458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>123459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="nguyendantruongg@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>84328341092</v>
+      </c>
+      <c r="E2">
+        <v>123123123</v>
+      </c>
+      <c r="F2">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>84328341092</v>
+      </c>
+      <c r="E3">
+        <v>123123123</v>
+      </c>
+      <c r="F3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>123123123</v>
+      </c>
+      <c r="F4">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>328341</v>
+      </c>
+      <c r="E5">
+        <v>123123123</v>
+      </c>
+      <c r="F5">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>84328341092</v>
+      </c>
+      <c r="F6">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>84328341092</v>
+      </c>
+      <c r="E7">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>84328341092</v>
+      </c>
+      <c r="E8">
+        <v>123123123</v>
+      </c>
+      <c r="F8">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>84328341092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>84328341093</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>